--- a/data/trans_dic/P16A08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,15</t>
+          <t>2,56; 6,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,34</t>
+          <t>2,61; 6,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,82</t>
+          <t>1,98; 5,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,17</t>
+          <t>1,68; 6,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,76</t>
+          <t>1,18; 4,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,53</t>
+          <t>3,38; 8,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,94</t>
+          <t>2,65; 7,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,73</t>
+          <t>3,72; 7,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,27</t>
+          <t>2,35; 5,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,5</t>
+          <t>3,41; 6,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,76</t>
+          <t>2,89; 5,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,06</t>
+          <t>3,13; 6,18</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,35</t>
+          <t>2,66; 7,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,5</t>
+          <t>1,98; 6,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,56</t>
+          <t>1,98; 5,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,72</t>
+          <t>4,29; 10,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,55</t>
+          <t>4,45; 9,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,01</t>
+          <t>3,53; 8,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,01</t>
+          <t>5,43; 10,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,41</t>
+          <t>2,32; 5,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,89</t>
+          <t>4,04; 7,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,42</t>
+          <t>3,21; 6,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,74</t>
+          <t>3,89; 6,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,58</t>
+          <t>1,56; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,25</t>
+          <t>1,97; 5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,44</t>
+          <t>1,26; 4,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,22</t>
+          <t>0,9; 5,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,97</t>
+          <t>0,53; 5,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,3</t>
+          <t>2,7; 8,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 13,79</t>
+          <t>4,84; 13,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,96</t>
+          <t>3,09; 8,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,9</t>
+          <t>1,52; 3,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,39</t>
+          <t>2,53; 5,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,48</t>
+          <t>2,48; 5,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,28</t>
+          <t>1,2; 5,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,45</t>
+          <t>1,53; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,54</t>
+          <t>1,59; 3,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,44</t>
+          <t>1,64; 3,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,09</t>
+          <t>1,98; 4,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,67</t>
+          <t>2,88; 5,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,6</t>
+          <t>5,55; 9,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,89</t>
+          <t>4,46; 7,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,23</t>
+          <t>1,7; 5,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,9</t>
+          <t>2,37; 3,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,31</t>
+          <t>3,42; 5,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,91</t>
+          <t>3,17; 4,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,14</t>
+          <t>2,21; 4,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,53</t>
+          <t>0,56; 3,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,79</t>
+          <t>1,7; 4,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,97</t>
+          <t>2,04; 5,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,17</t>
+          <t>2,42; 6,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,42</t>
+          <t>2,17; 5,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,65</t>
+          <t>2,73; 5,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,94</t>
+          <t>3,74; 7,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 33,22</t>
+          <t>3,51; 36,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,92</t>
+          <t>1,73; 4,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,89</t>
+          <t>2,54; 4,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,83</t>
+          <t>3,24; 5,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 30,15</t>
+          <t>3,49; 26,45</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,75</t>
+          <t>1,18; 4,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,18</t>
+          <t>3,33; 9,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,11</t>
+          <t>2,75; 7,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,84</t>
+          <t>1,15; 10,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,88</t>
+          <t>2,81; 4,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,49</t>
+          <t>3,88; 6,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,26</t>
+          <t>3,48; 6,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,37</t>
+          <t>2,6; 5,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,52</t>
+          <t>2,57; 4,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,59</t>
+          <t>3,93; 6,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,94</t>
+          <t>3,7; 5,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,7</t>
+          <t>2,62; 5,91</t>
         </is>
       </c>
     </row>
@@ -1564,47 +1565,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,97</t>
+          <t>1,87; 3,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,14</t>
+          <t>2,76; 4,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,78</t>
+          <t>2,53; 3,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,1</t>
+          <t>2,43; 4,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,71</t>
+          <t>3,29; 4,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,4</t>
+          <t>4,79; 6,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 6,26</t>
+          <t>4,66; 6,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,52</t>
+          <t>4,13; 12,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,59</t>
+          <t>2,76; 3,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 4,75</t>
+          <t>3,79; 4,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,73</t>
+          <t>3,6; 9,57</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19098</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18505</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15421</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16538</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7817</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17687</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16488</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26915</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36191</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31910</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41184</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12130; 30101</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11394; 28843</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8491; 24210</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8480; 30770</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3631; 14612</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10591; 27165</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9195; 26220</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16663; 35702</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18314; 39239</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25561; 50306</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22449; 45270</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29801; 58847</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19348</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13737</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15012</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25374</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23457</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20440</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28473</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27379</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42805</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34178</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43485</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7890</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11083; 31863</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7452; 22777</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8950; 25737</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15941; 37637</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14932; 33356</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13147; 31428</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20762; 39293</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17154; 39050</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30366; 57854</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24037; 48239</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32448; 58099</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14462</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20299</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13139</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18739</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13211</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13665</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9029</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17483</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33510</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26805</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27768</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8466; 23370</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12347; 33404</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6553; 22120</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6018; 34562</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>892; 8675</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6977; 21209</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8041; 22630</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5165; 14683</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10799; 27837</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22379; 47492</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17055; 38039</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10051; 44621</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29638</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27731</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>29451</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>29913</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>55311</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49889</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35699</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59551</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>82966</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77620</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65151</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18951; 43399</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18387; 39454</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18909; 39654</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20539; 44911</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20571; 41711</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>42540; 71432</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36831; 64422</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16609; 50222</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46277; 77442</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>65815; 104497</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>62662; 97344</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44440; 84742</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14940</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20377</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18782</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19415</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30606</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>38240</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98985</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25250</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45546</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>58617</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>117767</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1971; 11840</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8680; 24720</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12693; 31006</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11452; 29532</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12345; 30318</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20714; 43713</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27583; 53175</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29417; 302081</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15878; 36990</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>32286; 59960</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44004; 74378</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>45817; 347114</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15863</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13830</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9847</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>46736</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>54934</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50786</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27711</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>53912</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>70797</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>64616</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>37558</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3529; 14053</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8858; 24554</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7907; 22635</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2773; 25607</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35148; 61357</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>42839; 71722</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>37644; 68608</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19787; 39958</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>39741; 67890</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>53825; 87658</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>50629; 81883</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26258; 59099</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>78213</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>116610</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>104236</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>108369</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>132277</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>195206</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>189509</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>224543</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>210489</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>311815</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>293745</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>332912</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>61055; 98951</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>94174; 140681</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>85699; 127733</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>81864; 137087</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>111178; 156515</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>169579; 227983</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>164577; 221626</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>147493; 460706</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>183708; 243869</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>276782; 351286</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>261846; 328132</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>250076; 664764</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
